--- a/results/ranking_voters=10_projects=6.xlsx
+++ b/results/ranking_voters=10_projects=6.xlsx
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -543,22 +543,22 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -566,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -619,19 +619,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -666,25 +666,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -716,22 +716,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -743,22 +743,22 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -766,25 +766,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
@@ -793,22 +793,22 @@
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
